--- a/ base-datos-g3/tp2/informe/imagenes/excels/c2_variando_valor.xlsx
+++ b/ base-datos-g3/tp2/informe/imagenes/excels/c2_variando_valor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
@@ -1750,7 +1751,7 @@
         <v>5.2170000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>6.2709999999999988E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>7.0860000000000006E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>150</v>
       </c>
@@ -1840,7 +1841,7 @@
         <v>4.3990000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>7.7269999999999991E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>250</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>7.5249999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>300</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>7.2950000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>350</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>5.8629999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>400</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>450</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>7.5260000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>500</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>5.8130000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>550</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>5.8290000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>600</v>
       </c>
@@ -2109,8 +2110,9 @@
         <f t="shared" si="2"/>
         <v>5.8439999999999999E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>650</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>5.8479999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>700</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>750</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>800</v>
       </c>
